--- a/database/tatvasoft_helperland_database_schema.xlsx
+++ b/database/tatvasoft_helperland_database_schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbsar\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C882353-28DF-44B8-AC91-89128727BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BB7DA8-F605-4703-A273-CBCC33A04E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{7209F5F9-B30D-4B79-A749-4F8898E5C2D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7209F5F9-B30D-4B79-A749-4F8898E5C2D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="68">
   <si>
     <t>sr no.</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>default(0)</t>
+  </si>
+  <si>
+    <t>address_id</t>
+  </si>
+  <si>
+    <t>foreign_key(id) address table</t>
   </si>
 </sst>
 </file>
@@ -307,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -347,6 +353,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42F1C40-EDAA-4298-A26E-D8A0C6E4C3AD}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,6 +1195,21 @@
       </c>
       <c r="F36" s="6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
